--- a/Python/clientconfig.xlsx
+++ b/Python/clientconfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4593530B-830E-4F8C-A974-0AC2FEF49F30}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CDFF9711-4569-4F25-AF83-A3EDABB8F82B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>主机名称*</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,29 @@
   <si>
     <t xml:space="preserve"> 说明 nas</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orcl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oracle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库安装路径*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/oracle/app/oracle/product/11.2.0/dbhome_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-AFP-ACDG-cv</t>
   </si>
 </sst>
 </file>
@@ -126,12 +149,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -161,10 +190,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -445,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -456,9 +486,10 @@
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="10" max="10" width="8.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,23 +520,26 @@
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -526,17 +560,52 @@
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>0.91666666666666663</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Python/clientconfig.xlsx
+++ b/Python/clientconfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CDFF9711-4569-4F25-AF83-A3EDABB8F82B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{50A5FEF4-70A3-4527-A27C-B5D1F16AB4EE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>主机名称*</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,21 @@
   </si>
   <si>
     <t>A-AFP-ACDG-cv</t>
+  </si>
+  <si>
+    <t>a-zcty-db01-cv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a-zcty-db02-cv</t>
+  </si>
+  <si>
+    <t>a-zcty-db-cv-dg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -475,18 +490,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="10" max="10" width="8.4140625" customWidth="1"/>
+    <col min="11" max="11" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -565,7 +582,7 @@
         <v>17</v>
       </c>
       <c r="M2" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
@@ -606,6 +623,82 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
